--- a/tut05/output/0401EE18.xlsx
+++ b/tut05/output/0401EE18.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.448979591836735</v>
+        <v>7.45</v>
       </c>
       <c r="C6" t="n">
-        <v>7.090909090909091</v>
+        <v>7.09</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>7.565217391304348</v>
+        <v>7.57</v>
       </c>
       <c r="F6" t="n">
-        <v>7.230769230769231</v>
+        <v>7.23</v>
       </c>
       <c r="G6" t="n">
-        <v>6.875</v>
+        <v>6.88</v>
       </c>
       <c r="H6" t="n">
-        <v>6.511627906976744</v>
+        <v>6.51</v>
       </c>
       <c r="I6" t="n">
-        <v>6.421052631578948</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.448979591836735</v>
+        <v>7.45</v>
       </c>
       <c r="C8" t="n">
-        <v>7.279569892473118</v>
+        <v>7.28</v>
       </c>
       <c r="D8" t="n">
-        <v>7.517985611510792</v>
+        <v>7.52</v>
       </c>
       <c r="E8" t="n">
-        <v>7.52972972972973</v>
+        <v>7.53</v>
       </c>
       <c r="F8" t="n">
-        <v>7.477678571428571</v>
+        <v>7.48</v>
       </c>
       <c r="G8" t="n">
-        <v>7.386363636363637</v>
+        <v>7.39</v>
       </c>
       <c r="H8" t="n">
-        <v>7.263843648208469</v>
+        <v>7.26</v>
       </c>
       <c r="I8" t="n">
-        <v>7.171014492753623</v>
+        <v>7.17</v>
       </c>
     </row>
   </sheetData>
